--- a/in-progress/Ghosh_2013_JMatChemA/master_template_APS.xlsx
+++ b/in-progress/Ghosh_2013_JMatChemA/master_template_APS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjany/Desktop/Duke Internship/10.1039:c3ta10381a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Ghosh_2013_JMatChemA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA112D5F-AEBD-B140-A403-D92C67B16FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9830FC-C3ED-4A8D-8774-D266994B83E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="605" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="605" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1. Data Origin'!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,9 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2498,12 +2496,6 @@
     <t>Celsius</t>
   </si>
   <si>
-    <t>mixture was then heated to 250°C under anitrogen atmosphere for the esterication phase.</t>
-  </si>
-  <si>
-    <t>temperature was raised to 280_x000E_C in the polycondensationreactor under vacuum to form a high molecular weight polyester</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG-silica slurry added to terephthalic acid </t>
   </si>
   <si>
@@ -2562,6 +2554,12 @@
   </si>
   <si>
     <t xml:space="preserve">product was collected via vacuum filtration on a Buchner funnel, washed several times with methanol and acetone </t>
+  </si>
+  <si>
+    <t>temperature was raised to 280°C in the polycondensationreactor under vacuum to form a high molecular weight polyester</t>
+  </si>
+  <si>
+    <t>mixture was then heated to 250°C under anitrogen atmosphere for the esterification phase.</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3632,7 +3630,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -3957,27 +3955,27 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="38" t="s">
         <v>404</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="38"/>
       <c r="B3" s="40"/>
       <c r="C3" s="38" t="s">
@@ -3996,16 +3994,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="2" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -4014,14 +4012,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="61.2" customHeight="1">
       <c r="A2" s="175" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>201</v>
       </c>
@@ -4047,7 +4045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -4058,7 +4056,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -4068,7 +4066,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -4079,7 +4077,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>506</v>
       </c>
@@ -4090,7 +4088,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>507</v>
       </c>
@@ -4101,7 +4099,7 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -4112,7 +4110,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -4123,7 +4121,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -4171,20 +4169,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -4193,14 +4191,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="61.2" customHeight="1">
       <c r="A2" s="175" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
     </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>206</v>
       </c>
@@ -4214,7 +4212,7 @@
       <c r="I4" s="124"/>
       <c r="J4" s="124"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="149" t="s">
         <v>571</v>
       </c>
@@ -4223,7 +4221,7 @@
       <c r="D5" s="141"/>
       <c r="E5" s="140"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="150" t="s">
         <v>559</v>
       </c>
@@ -4232,14 +4230,14 @@
       <c r="D6" s="134"/>
       <c r="E6" s="136"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="138"/>
       <c r="B7" s="134"/>
       <c r="C7" s="134"/>
       <c r="D7" s="134"/>
       <c r="E7" s="136"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="123" t="s">
         <v>560</v>
       </c>
@@ -4256,7 +4254,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="139" t="s">
         <v>563</v>
       </c>
@@ -4265,7 +4263,7 @@
       <c r="D9" s="133"/>
       <c r="E9" s="136"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="139" t="s">
         <v>545</v>
       </c>
@@ -4274,7 +4272,7 @@
       <c r="D10" s="131"/>
       <c r="E10" s="136"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="139" t="s">
         <v>505</v>
       </c>
@@ -4283,14 +4281,14 @@
       <c r="D11" s="131"/>
       <c r="E11" s="136"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="139"/>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
       <c r="D12" s="134"/>
       <c r="E12" s="136"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="139"/>
       <c r="B13" s="132" t="s">
         <v>210</v>
@@ -4303,7 +4301,7 @@
       </c>
       <c r="E13" s="136"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="142" t="s">
         <v>582</v>
       </c>
@@ -4312,7 +4310,7 @@
       <c r="D14" s="134"/>
       <c r="E14" s="136"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="142" t="s">
         <v>583</v>
       </c>
@@ -4321,7 +4319,7 @@
       <c r="D15" s="134"/>
       <c r="E15" s="136"/>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="142" t="s">
         <v>584</v>
       </c>
@@ -4331,7 +4329,7 @@
       <c r="E16" s="136"/>
       <c r="F16" s="129"/>
     </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" thickBot="1">
       <c r="A17" s="143" t="s">
         <v>569</v>
       </c>
@@ -4340,8 +4338,8 @@
       <c r="D17" s="145"/>
       <c r="E17" s="146"/>
     </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" thickBot="1"/>
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="151" t="s">
         <v>570</v>
       </c>
@@ -4353,7 +4351,7 @@
       <c r="G19" s="141"/>
       <c r="H19" s="140"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="150" t="s">
         <v>559</v>
       </c>
@@ -4365,7 +4363,7 @@
       <c r="G20" s="134"/>
       <c r="H20" s="136"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="138"/>
       <c r="B21" s="134"/>
       <c r="C21" s="134"/>
@@ -4375,7 +4373,7 @@
       <c r="G21" s="134"/>
       <c r="H21" s="136"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="148" t="s">
         <v>560</v>
       </c>
@@ -4395,7 +4393,7 @@
       <c r="G22" s="134"/>
       <c r="H22" s="136"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="139" t="s">
         <v>563</v>
       </c>
@@ -4407,7 +4405,7 @@
       <c r="G23" s="134"/>
       <c r="H23" s="136"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="139" t="s">
         <v>545</v>
       </c>
@@ -4419,7 +4417,7 @@
       <c r="G24" s="134"/>
       <c r="H24" s="136"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="139" t="s">
         <v>505</v>
       </c>
@@ -4431,7 +4429,7 @@
       <c r="G25" s="134"/>
       <c r="H25" s="136"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="139"/>
       <c r="B26" s="134"/>
       <c r="C26" s="134"/>
@@ -4441,7 +4439,7 @@
       <c r="G26" s="134"/>
       <c r="H26" s="136"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="139"/>
       <c r="B27" s="132" t="s">
         <v>210</v>
@@ -4465,7 +4463,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="139" t="s">
         <v>567</v>
       </c>
@@ -4477,7 +4475,7 @@
       <c r="G28" s="131"/>
       <c r="H28" s="136"/>
     </row>
-    <row r="29" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" thickBot="1">
       <c r="A29" s="143" t="s">
         <v>568</v>
       </c>
@@ -4529,27 +4527,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
         <v>376</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="114" customHeight="1">
       <c r="A2" s="176" t="s">
         <v>594</v>
       </c>
       <c r="B2" s="176"/>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" thickBot="1"/>
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="153" t="s">
         <v>377</v>
       </c>
@@ -4561,7 +4559,7 @@
       </c>
       <c r="D4" s="155"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="138" t="s">
         <v>378</v>
       </c>
@@ -4569,7 +4567,7 @@
       <c r="C5" s="75"/>
       <c r="D5" s="136"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="74" t="s">
         <v>210</v>
       </c>
@@ -4577,7 +4575,7 @@
       <c r="C6" s="75"/>
       <c r="D6" s="136"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="74" t="s">
         <v>379</v>
       </c>
@@ -4585,7 +4583,7 @@
       <c r="C7" s="75"/>
       <c r="D7" s="136"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="74" t="s">
         <v>380</v>
       </c>
@@ -4593,13 +4591,13 @@
       <c r="C8" s="75"/>
       <c r="D8" s="136"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="74"/>
       <c r="B9" s="31"/>
       <c r="C9" s="75"/>
       <c r="D9" s="136"/>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.6">
       <c r="A10" s="72" t="s">
         <v>381</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="138" t="s">
         <v>382</v>
       </c>
@@ -4623,7 +4621,7 @@
       </c>
       <c r="D11" s="136"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="138" t="s">
         <v>383</v>
       </c>
@@ -4633,7 +4631,7 @@
       </c>
       <c r="D12" s="136"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="138" t="s">
         <v>384</v>
       </c>
@@ -4643,7 +4641,7 @@
       </c>
       <c r="D13" s="136"/>
     </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" thickBot="1">
       <c r="A14" s="156" t="s">
         <v>385</v>
       </c>
@@ -4651,12 +4649,12 @@
       <c r="C14" s="157"/>
       <c r="D14" s="146"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15.6">
       <c r="A16" s="33" t="s">
         <v>386</v>
       </c>
@@ -4670,14 +4668,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="20" t="s">
         <v>387</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="20" t="s">
         <v>388</v>
       </c>
@@ -4726,19 +4724,19 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4784,7 +4782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4821,7 +4819,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4835,7 +4833,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -4854,12 +4852,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="F9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -4879,12 +4877,12 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="F11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4904,7 +4902,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4924,7 +4922,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4961,7 +4959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4969,7 +4967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -4980,7 +4978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -5030,7 +5028,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5067,7 +5065,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5084,7 +5082,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -5120,12 +5118,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -5141,7 +5139,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
@@ -5149,12 +5147,12 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="E34" s="20" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -5187,7 +5185,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>90</v>
       </c>
@@ -5195,12 +5193,12 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -5208,12 +5206,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="E41" s="20" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -5221,7 +5219,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -5229,7 +5227,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>164</v>
       </c>
@@ -5243,7 +5241,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -5271,7 +5269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -5282,47 +5280,47 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="20" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="20" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="20" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="20" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="20" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
         <v>265</v>
       </c>
@@ -5345,7 +5343,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="20" t="s">
         <v>262</v>
       </c>
@@ -5368,7 +5366,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="20" t="s">
         <v>263</v>
       </c>
@@ -5391,7 +5389,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="20" t="s">
         <v>264</v>
       </c>
@@ -5411,7 +5409,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="20" t="s">
         <v>595</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="B67" s="20" t="s">
         <v>325</v>
       </c>
@@ -5439,7 +5437,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="B68" s="20" t="s">
         <v>326</v>
       </c>
@@ -5447,7 +5445,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="B69" s="20" t="s">
         <v>327</v>
       </c>
@@ -5455,12 +5453,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="B70" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>394</v>
       </c>
@@ -5468,7 +5466,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="20" t="s">
         <v>390</v>
       </c>
@@ -5476,7 +5474,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="20" t="s">
         <v>391</v>
       </c>
@@ -5484,7 +5482,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="20" t="s">
         <v>392</v>
       </c>
@@ -5492,7 +5490,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="20" t="s">
         <v>393</v>
       </c>
@@ -5512,14 +5510,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="43" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
         <v>375</v>
       </c>
@@ -5528,14 +5526,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="60" customHeight="1">
       <c r="A2" s="163" t="s">
         <v>417</v>
       </c>
       <c r="B2" s="163"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -5546,7 +5544,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -5554,7 +5552,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="28.8">
       <c r="A5" s="119" t="s">
         <v>373</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.6">
       <c r="A6" s="44" t="s">
         <v>512</v>
       </c>
@@ -5574,7 +5572,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="44" t="s">
         <v>419</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.6">
       <c r="A8" s="44" t="s">
         <v>420</v>
       </c>
@@ -5590,7 +5588,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.6">
       <c r="A9" s="44" t="s">
         <v>539</v>
       </c>
@@ -5598,10 +5596,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="46"/>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.6">
       <c r="A11" s="44" t="s">
         <v>421</v>
       </c>
@@ -5609,34 +5607,34 @@
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.6">
       <c r="A13" s="47" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="48" t="s">
         <v>423</v>
       </c>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="49"/>
       <c r="B15" s="49"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>424</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -5645,55 +5643,55 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>437</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -5711,21 +5709,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.6">
       <c r="A31" s="21" t="s">
         <v>371</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
@@ -5734,7 +5732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>438</v>
       </c>
@@ -5743,7 +5741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="60" t="s">
         <v>579</v>
       </c>
@@ -5840,23 +5838,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
@@ -5865,14 +5863,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="164" t="s">
         <v>519</v>
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="22" t="s">
         <v>444</v>
       </c>
@@ -5889,12 +5887,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="15"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="2" t="s">
         <v>99</v>
       </c>
@@ -5903,14 +5901,14 @@
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
@@ -5919,7 +5917,7 @@
       </c>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>439</v>
       </c>
@@ -5928,42 +5926,42 @@
       </c>
       <c r="C9" s="14"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.6">
       <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.6">
       <c r="A12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.6">
       <c r="A13" s="2" t="s">
         <v>514</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.6">
       <c r="A14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
@@ -5971,21 +5969,21 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="14"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.6">
       <c r="A18" s="2" t="s">
         <v>107</v>
       </c>
@@ -5993,14 +5991,14 @@
       <c r="C18" s="4"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="53"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="2" t="s">
         <v>94</v>
       </c>
@@ -6009,7 +6007,7 @@
       <c r="D20" s="56"/>
       <c r="E20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>95</v>
       </c>
@@ -6017,26 +6015,26 @@
       <c r="C21" s="86"/>
       <c r="D21" s="54"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="2" t="s">
         <v>523</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="2" t="s">
         <v>524</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="2"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="18" t="s">
         <v>426</v>
       </c>
@@ -6056,19 +6054,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="124" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="124" customFormat="1" ht="15.6">
       <c r="A27" s="152" t="s">
         <v>593</v>
       </c>
       <c r="B27" s="128"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="2" t="s">
         <v>446</v>
       </c>
@@ -6077,21 +6075,21 @@
       </c>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="2" t="s">
         <v>553</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="2" t="s">
         <v>538</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="2" t="s">
         <v>515</v>
       </c>
@@ -6100,14 +6098,14 @@
       </c>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="2" t="s">
         <v>107</v>
       </c>
@@ -6115,14 +6113,14 @@
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.6">
       <c r="A34" s="2" t="s">
         <v>428</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="2" t="s">
         <v>525</v>
       </c>
@@ -6131,11 +6129,11 @@
         <v>12</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -6143,7 +6141,7 @@
       <c r="C36" s="16"/>
       <c r="D36" s="128"/>
     </row>
-    <row r="37" spans="1:5" s="124" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" s="124" customFormat="1" ht="15.6">
       <c r="A37" s="125" t="s">
         <v>581</v>
       </c>
@@ -6151,14 +6149,14 @@
       <c r="C37" s="128"/>
       <c r="D37" s="128"/>
     </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.6">
       <c r="A38" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.6">
       <c r="A39" s="2" t="s">
         <v>434</v>
       </c>
@@ -6166,7 +6164,7 @@
       <c r="C39" s="16"/>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.6">
       <c r="A40" s="2" t="s">
         <v>433</v>
       </c>
@@ -6174,7 +6172,7 @@
       <c r="C40" s="16"/>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="2" t="s">
         <v>435</v>
       </c>
@@ -6182,28 +6180,28 @@
       <c r="C41" s="16"/>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.6">
       <c r="A42" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.6">
       <c r="A43" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.6">
       <c r="A45" s="18" t="s">
         <v>429</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="2" t="s">
         <v>443</v>
       </c>
@@ -6212,7 +6210,7 @@
       </c>
       <c r="C46" s="70"/>
     </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48" s="18" t="s">
         <v>453</v>
       </c>
@@ -6229,18 +6227,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="46" t="s">
         <v>447</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="46" t="s">
         <v>448</v>
       </c>
@@ -6249,25 +6247,25 @@
       <c r="D50" s="43"/>
       <c r="E50" s="57"/>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="35" t="s">
         <v>531</v>
       </c>
       <c r="B51" s="58"/>
       <c r="E51" s="57"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="2" t="s">
         <v>516</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="43"/>
       <c r="E52" s="57"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="46" t="s">
         <v>449</v>
       </c>
@@ -6276,7 +6274,7 @@
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="46" t="s">
         <v>451</v>
       </c>
@@ -6285,7 +6283,7 @@
       <c r="D54" s="59"/>
       <c r="E54" s="43"/>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="46" t="s">
         <v>452</v>
       </c>
@@ -6294,7 +6292,7 @@
       <c r="D55" s="58"/>
       <c r="E55" s="43"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>450</v>
       </c>
@@ -6303,7 +6301,7 @@
       <c r="D56" s="58"/>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="2" t="s">
         <v>521</v>
       </c>
@@ -6311,15 +6309,15 @@
       <c r="C57" s="58"/>
       <c r="E57" s="43"/>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B58" s="58"/>
       <c r="C58" s="58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="18" t="s">
         <v>517</v>
       </c>
@@ -6329,12 +6327,12 @@
       <c r="G60" s="164"/>
       <c r="H60" s="164"/>
     </row>
-    <row r="61" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="F61" s="164"/>
       <c r="G61" s="164"/>
       <c r="H61" s="164"/>
     </row>
-    <row r="62" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16.2" thickTop="1">
       <c r="A62" s="112" t="s">
         <v>268</v>
       </c>
@@ -6351,12 +6349,12 @@
       <c r="G62" s="164"/>
       <c r="H62" s="164"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="74" t="s">
         <v>269</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C63" s="75"/>
       <c r="D63" s="71" t="s">
@@ -6366,7 +6364,7 @@
       <c r="G63" s="164"/>
       <c r="H63" s="164"/>
     </row>
-    <row r="64" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="74" t="s">
         <v>270</v>
       </c>
@@ -6379,7 +6377,7 @@
       <c r="G64" s="165"/>
       <c r="H64" s="165"/>
     </row>
-    <row r="65" spans="1:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="21.6" thickBot="1">
       <c r="A65" s="92" t="s">
         <v>271</v>
       </c>
@@ -6387,7 +6385,7 @@
         <v>50</v>
       </c>
       <c r="C65" s="93" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D65" s="91"/>
       <c r="F65" s="83" t="s">
@@ -6397,7 +6395,7 @@
       <c r="H65" s="84"/>
       <c r="I65" s="85"/>
     </row>
-    <row r="66" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F66" s="89" t="s">
         <v>528</v>
       </c>
@@ -6405,7 +6403,7 @@
       <c r="H66" s="88"/>
       <c r="I66" s="87"/>
     </row>
-    <row r="67" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16.2" thickTop="1">
       <c r="A67" s="72" t="s">
         <v>272</v>
       </c>
@@ -6431,18 +6429,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15" thickBot="1">
       <c r="A68" s="92" t="s">
         <v>546</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C68" s="93">
         <v>1</v>
       </c>
       <c r="D68" s="104" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F68" s="74" t="s">
         <v>269</v>
@@ -6451,7 +6449,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="71"/>
     </row>
-    <row r="69" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F69" s="74" t="s">
         <v>270</v>
       </c>
@@ -6459,7 +6457,7 @@
       <c r="H69" s="75"/>
       <c r="I69" s="71"/>
     </row>
-    <row r="70" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A70" s="112" t="s">
         <v>273</v>
       </c>
@@ -6479,12 +6477,12 @@
       <c r="H70" s="93"/>
       <c r="I70" s="91"/>
     </row>
-    <row r="71" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A71" s="74" t="s">
         <v>274</v>
       </c>
       <c r="B71" s="131" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C71" s="75"/>
       <c r="D71" s="136"/>
@@ -6493,7 +6491,7 @@
       <c r="H71" s="31"/>
       <c r="I71" s="71"/>
     </row>
-    <row r="72" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="16.2" thickTop="1">
       <c r="A72" s="138" t="s">
         <v>275</v>
       </c>
@@ -6513,7 +6511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="138" t="s">
         <v>276</v>
       </c>
@@ -6529,7 +6527,7 @@
       <c r="H73" s="75"/>
       <c r="I73" s="71"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="138" t="s">
         <v>277</v>
       </c>
@@ -6543,7 +6541,7 @@
       <c r="H74" s="23"/>
       <c r="I74" s="71"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="138" t="s">
         <v>278</v>
       </c>
@@ -6561,7 +6559,7 @@
       <c r="H75" s="23"/>
       <c r="I75" s="71"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="138" t="s">
         <v>279</v>
       </c>
@@ -6575,7 +6573,7 @@
       <c r="H76" s="23"/>
       <c r="I76" s="71"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="139"/>
       <c r="B77" s="132" t="s">
         <v>501</v>
@@ -6593,7 +6591,7 @@
       <c r="H77" s="57"/>
       <c r="I77" s="71"/>
     </row>
-    <row r="78" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="16.2" thickBot="1">
       <c r="A78" s="103" t="s">
         <v>536</v>
       </c>
@@ -6607,13 +6605,13 @@
       <c r="H78" s="99"/>
       <c r="I78" s="91"/>
     </row>
-    <row r="79" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F79" s="94"/>
       <c r="G79" s="95"/>
       <c r="H79" s="95"/>
       <c r="I79" s="96"/>
     </row>
-    <row r="80" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="16.2" thickTop="1">
       <c r="A80" s="112" t="s">
         <v>268</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15" thickBot="1">
       <c r="A81" s="74" t="s">
         <v>269</v>
       </c>
@@ -6653,12 +6651,12 @@
       <c r="H81" s="93"/>
       <c r="I81" s="104"/>
     </row>
-    <row r="82" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A82" s="74" t="s">
         <v>270</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C82" s="75"/>
       <c r="D82" s="136"/>
@@ -6667,7 +6665,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="71"/>
     </row>
-    <row r="83" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A83" s="92" t="s">
         <v>271</v>
       </c>
@@ -6687,7 +6685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F84" s="74" t="s">
         <v>274</v>
       </c>
@@ -6695,7 +6693,7 @@
       <c r="H84" s="75"/>
       <c r="I84" s="71"/>
     </row>
-    <row r="85" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="16.2" thickTop="1">
       <c r="A85" s="112" t="s">
         <v>529</v>
       </c>
@@ -6715,12 +6713,12 @@
       <c r="H85" s="75"/>
       <c r="I85" s="71"/>
     </row>
-    <row r="86" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15" thickBot="1">
       <c r="A86" s="143" t="s">
         <v>530</v>
       </c>
       <c r="B86" s="144" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C86" s="145"/>
       <c r="D86" s="146"/>
@@ -6731,7 +6729,7 @@
       <c r="H86" s="75"/>
       <c r="I86" s="71"/>
     </row>
-    <row r="87" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15" thickBot="1">
       <c r="F87" s="76" t="s">
         <v>277</v>
       </c>
@@ -6739,7 +6737,7 @@
       <c r="H87" s="24"/>
       <c r="I87" s="71"/>
     </row>
-    <row r="88" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="16.2" thickTop="1">
       <c r="A88" s="112" t="s">
         <v>529</v>
       </c>
@@ -6759,12 +6757,12 @@
       <c r="H88" s="23"/>
       <c r="I88" s="71"/>
     </row>
-    <row r="89" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15" thickBot="1">
       <c r="A89" s="143" t="s">
         <v>530</v>
       </c>
       <c r="B89" s="144" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C89" s="145"/>
       <c r="D89" s="146"/>
@@ -6775,7 +6773,7 @@
       <c r="H89" s="23"/>
       <c r="I89" s="71"/>
     </row>
-    <row r="90" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15" thickBot="1">
       <c r="F90" s="77"/>
       <c r="G90" s="27" t="s">
         <v>501</v>
@@ -6787,7 +6785,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A91" s="112" t="s">
         <v>314</v>
       </c>
@@ -6807,7 +6805,7 @@
       <c r="H91" s="93"/>
       <c r="I91" s="116"/>
     </row>
-    <row r="92" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="74" t="s">
         <v>315</v>
       </c>
@@ -6819,7 +6817,7 @@
       <c r="H92" s="57"/>
       <c r="I92" s="71"/>
     </row>
-    <row r="93" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.2" thickTop="1">
       <c r="A93" s="74" t="s">
         <v>316</v>
       </c>
@@ -6837,7 +6835,7 @@
       <c r="H93" s="114"/>
       <c r="I93" s="115"/>
     </row>
-    <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.6">
       <c r="A94" s="74" t="s">
         <v>317</v>
       </c>
@@ -6853,7 +6851,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="71"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="74" t="s">
         <v>318</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="139"/>
       <c r="B96" s="132" t="s">
         <v>485</v>
@@ -6885,7 +6883,7 @@
       <c r="H96" s="75"/>
       <c r="I96" s="71"/>
     </row>
-    <row r="97" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="16.2" thickBot="1">
       <c r="A97" s="97" t="s">
         <v>486</v>
       </c>
@@ -6901,7 +6899,7 @@
       <c r="H97" s="75"/>
       <c r="I97" s="71"/>
     </row>
-    <row r="98" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15" thickTop="1">
       <c r="F98" s="76" t="s">
         <v>490</v>
       </c>
@@ -6909,7 +6907,7 @@
       <c r="H98" s="23"/>
       <c r="I98" s="71"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="F99" s="76" t="s">
         <v>491</v>
       </c>
@@ -6917,7 +6915,7 @@
       <c r="H99" s="23"/>
       <c r="I99" s="71"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="F100" s="76" t="s">
         <v>283</v>
       </c>
@@ -6925,7 +6923,7 @@
       <c r="H100" s="29"/>
       <c r="I100" s="71"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="F101" s="76" t="s">
         <v>284</v>
       </c>
@@ -6933,7 +6931,7 @@
       <c r="H101" s="29"/>
       <c r="I101" s="71"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="F102" s="76" t="s">
         <v>285</v>
       </c>
@@ -6941,7 +6939,7 @@
       <c r="H102" s="29"/>
       <c r="I102" s="71"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="F103" s="76" t="s">
         <v>286</v>
       </c>
@@ -6949,7 +6947,7 @@
       <c r="H103" s="75"/>
       <c r="I103" s="71"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="F104" s="76" t="s">
         <v>287</v>
       </c>
@@ -6957,7 +6955,7 @@
       <c r="H104" s="24"/>
       <c r="I104" s="71"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="F105" s="76" t="s">
         <v>288</v>
       </c>
@@ -6965,7 +6963,7 @@
       <c r="H105" s="29"/>
       <c r="I105" s="71"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="F106" s="76" t="s">
         <v>289</v>
       </c>
@@ -6973,7 +6971,7 @@
       <c r="H106" s="29"/>
       <c r="I106" s="71"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="F107" s="76" t="s">
         <v>290</v>
       </c>
@@ -6981,7 +6979,7 @@
       <c r="H107" s="24"/>
       <c r="I107" s="71"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="F108" s="76" t="s">
         <v>291</v>
       </c>
@@ -6989,7 +6987,7 @@
       <c r="H108" s="75"/>
       <c r="I108" s="71"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="F109" s="76" t="s">
         <v>292</v>
       </c>
@@ -6997,7 +6995,7 @@
       <c r="H109" s="29"/>
       <c r="I109" s="71"/>
     </row>
-    <row r="110" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15.6">
       <c r="F110" s="72" t="s">
         <v>293</v>
       </c>
@@ -7005,7 +7003,7 @@
       <c r="H110" s="75"/>
       <c r="I110" s="71"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="F111" s="74" t="s">
         <v>294</v>
       </c>
@@ -7013,7 +7011,7 @@
       <c r="H111" s="75"/>
       <c r="I111" s="71"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="F112" s="74" t="s">
         <v>295</v>
       </c>
@@ -7021,7 +7019,7 @@
       <c r="H112" s="29"/>
       <c r="I112" s="71"/>
     </row>
-    <row r="113" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:9">
       <c r="F113" s="76" t="s">
         <v>296</v>
       </c>
@@ -7029,7 +7027,7 @@
       <c r="H113" s="23"/>
       <c r="I113" s="71"/>
     </row>
-    <row r="114" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:9">
       <c r="F114" s="76" t="s">
         <v>297</v>
       </c>
@@ -7037,7 +7035,7 @@
       <c r="H114" s="29"/>
       <c r="I114" s="71"/>
     </row>
-    <row r="115" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:9">
       <c r="F115" s="76" t="s">
         <v>298</v>
       </c>
@@ -7045,7 +7043,7 @@
       <c r="H115" s="24"/>
       <c r="I115" s="71"/>
     </row>
-    <row r="116" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:9">
       <c r="F116" s="76" t="s">
         <v>299</v>
       </c>
@@ -7053,7 +7051,7 @@
       <c r="H116" s="23"/>
       <c r="I116" s="71"/>
     </row>
-    <row r="117" spans="6:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:9" ht="15.6">
       <c r="F117" s="72" t="s">
         <v>300</v>
       </c>
@@ -7061,7 +7059,7 @@
       <c r="H117" s="75"/>
       <c r="I117" s="71"/>
     </row>
-    <row r="118" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:9">
       <c r="F118" s="74" t="s">
         <v>301</v>
       </c>
@@ -7069,7 +7067,7 @@
       <c r="H118" s="23"/>
       <c r="I118" s="71"/>
     </row>
-    <row r="119" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:9">
       <c r="F119" s="74" t="s">
         <v>302</v>
       </c>
@@ -7077,7 +7075,7 @@
       <c r="H119" s="23"/>
       <c r="I119" s="71"/>
     </row>
-    <row r="120" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:9">
       <c r="F120" s="74" t="s">
         <v>303</v>
       </c>
@@ -7085,7 +7083,7 @@
       <c r="H120" s="24"/>
       <c r="I120" s="71"/>
     </row>
-    <row r="121" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:9">
       <c r="F121" s="74" t="s">
         <v>304</v>
       </c>
@@ -7093,7 +7091,7 @@
       <c r="H121" s="24"/>
       <c r="I121" s="71"/>
     </row>
-    <row r="122" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:9">
       <c r="F122" s="74" t="s">
         <v>305</v>
       </c>
@@ -7101,7 +7099,7 @@
       <c r="H122" s="24"/>
       <c r="I122" s="71"/>
     </row>
-    <row r="123" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:9">
       <c r="F123" s="74" t="s">
         <v>306</v>
       </c>
@@ -7109,7 +7107,7 @@
       <c r="H123" s="24"/>
       <c r="I123" s="71"/>
     </row>
-    <row r="124" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:9">
       <c r="F124" s="74" t="s">
         <v>307</v>
       </c>
@@ -7117,7 +7115,7 @@
       <c r="H124" s="24"/>
       <c r="I124" s="71"/>
     </row>
-    <row r="125" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:9">
       <c r="F125" s="74" t="s">
         <v>308</v>
       </c>
@@ -7125,13 +7123,13 @@
       <c r="H125" s="23"/>
       <c r="I125" s="71"/>
     </row>
-    <row r="126" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:9">
       <c r="F126" s="74"/>
       <c r="G126" s="75"/>
       <c r="H126" s="75"/>
       <c r="I126" s="71"/>
     </row>
-    <row r="127" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:9">
       <c r="F127" s="78" t="s">
         <v>341</v>
       </c>
@@ -7145,13 +7143,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:9">
       <c r="F128" s="78"/>
       <c r="G128" s="75"/>
       <c r="H128" s="75"/>
       <c r="I128" s="71"/>
     </row>
-    <row r="129" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:9">
       <c r="F129" s="79" t="s">
         <v>282</v>
       </c>
@@ -7159,7 +7157,7 @@
       <c r="H129" s="75"/>
       <c r="I129" s="71"/>
     </row>
-    <row r="130" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:9">
       <c r="F130" s="79" t="s">
         <v>490</v>
       </c>
@@ -7167,7 +7165,7 @@
       <c r="H130" s="23"/>
       <c r="I130" s="71"/>
     </row>
-    <row r="131" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:9">
       <c r="F131" s="79" t="s">
         <v>491</v>
       </c>
@@ -7175,7 +7173,7 @@
       <c r="H131" s="23"/>
       <c r="I131" s="71"/>
     </row>
-    <row r="132" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:9">
       <c r="F132" s="79" t="s">
         <v>344</v>
       </c>
@@ -7183,7 +7181,7 @@
       <c r="H132" s="75"/>
       <c r="I132" s="71"/>
     </row>
-    <row r="133" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:9">
       <c r="F133" s="79" t="s">
         <v>283</v>
       </c>
@@ -7191,7 +7189,7 @@
       <c r="H133" s="29"/>
       <c r="I133" s="71"/>
     </row>
-    <row r="134" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:9">
       <c r="F134" s="79" t="s">
         <v>342</v>
       </c>
@@ -7199,7 +7197,7 @@
       <c r="H134" s="29"/>
       <c r="I134" s="71"/>
     </row>
-    <row r="135" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:9">
       <c r="F135" s="79" t="s">
         <v>286</v>
       </c>
@@ -7207,7 +7205,7 @@
       <c r="H135" s="75"/>
       <c r="I135" s="71"/>
     </row>
-    <row r="136" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:9">
       <c r="F136" s="79" t="s">
         <v>343</v>
       </c>
@@ -7215,7 +7213,7 @@
       <c r="H136" s="24"/>
       <c r="I136" s="71"/>
     </row>
-    <row r="137" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:9">
       <c r="F137" s="79" t="s">
         <v>288</v>
       </c>
@@ -7223,7 +7221,7 @@
       <c r="H137" s="29"/>
       <c r="I137" s="71"/>
     </row>
-    <row r="138" spans="6:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:9" ht="15.6">
       <c r="F138" s="80" t="s">
         <v>293</v>
       </c>
@@ -7231,7 +7229,7 @@
       <c r="H138" s="75"/>
       <c r="I138" s="71"/>
     </row>
-    <row r="139" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:9">
       <c r="F139" s="81" t="s">
         <v>294</v>
       </c>
@@ -7239,7 +7237,7 @@
       <c r="H139" s="75"/>
       <c r="I139" s="71"/>
     </row>
-    <row r="140" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:9">
       <c r="F140" s="81" t="s">
         <v>295</v>
       </c>
@@ -7247,7 +7245,7 @@
       <c r="H140" s="29"/>
       <c r="I140" s="71"/>
     </row>
-    <row r="141" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:9">
       <c r="F141" s="79" t="s">
         <v>296</v>
       </c>
@@ -7255,7 +7253,7 @@
       <c r="H141" s="23"/>
       <c r="I141" s="71"/>
     </row>
-    <row r="142" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:9">
       <c r="F142" s="79" t="s">
         <v>297</v>
       </c>
@@ -7263,7 +7261,7 @@
       <c r="H142" s="29"/>
       <c r="I142" s="71"/>
     </row>
-    <row r="143" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:9">
       <c r="F143" s="82" t="s">
         <v>298</v>
       </c>
@@ -7271,7 +7269,7 @@
       <c r="H143" s="75"/>
       <c r="I143" s="71"/>
     </row>
-    <row r="144" spans="6:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:9" ht="15.6">
       <c r="F144" s="80" t="s">
         <v>300</v>
       </c>
@@ -7279,7 +7277,7 @@
       <c r="H144" s="75"/>
       <c r="I144" s="71"/>
     </row>
-    <row r="145" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:9">
       <c r="F145" s="81" t="s">
         <v>301</v>
       </c>
@@ -7287,7 +7285,7 @@
       <c r="H145" s="23"/>
       <c r="I145" s="71"/>
     </row>
-    <row r="146" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:9">
       <c r="F146" s="81" t="s">
         <v>302</v>
       </c>
@@ -7295,7 +7293,7 @@
       <c r="H146" s="23"/>
       <c r="I146" s="71"/>
     </row>
-    <row r="147" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:9">
       <c r="F147" s="81" t="s">
         <v>303</v>
       </c>
@@ -7303,7 +7301,7 @@
       <c r="H147" s="24"/>
       <c r="I147" s="71"/>
     </row>
-    <row r="148" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:9">
       <c r="F148" s="81" t="s">
         <v>304</v>
       </c>
@@ -7311,7 +7309,7 @@
       <c r="H148" s="24"/>
       <c r="I148" s="71"/>
     </row>
-    <row r="149" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:9">
       <c r="F149" s="81" t="s">
         <v>305</v>
       </c>
@@ -7319,7 +7317,7 @@
       <c r="H149" s="24"/>
       <c r="I149" s="71"/>
     </row>
-    <row r="150" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:9">
       <c r="F150" s="81" t="s">
         <v>306</v>
       </c>
@@ -7327,7 +7325,7 @@
       <c r="H150" s="24"/>
       <c r="I150" s="71"/>
     </row>
-    <row r="151" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:9">
       <c r="F151" s="81" t="s">
         <v>307</v>
       </c>
@@ -7335,7 +7333,7 @@
       <c r="H151" s="24"/>
       <c r="I151" s="71"/>
     </row>
-    <row r="152" spans="6:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:9" ht="15" thickBot="1">
       <c r="F152" s="107" t="s">
         <v>308</v>
       </c>
@@ -7343,13 +7341,13 @@
       <c r="H152" s="108"/>
       <c r="I152" s="91"/>
     </row>
-    <row r="153" spans="6:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F153" s="79"/>
       <c r="G153" s="36"/>
       <c r="H153" s="75"/>
       <c r="I153" s="71"/>
     </row>
-    <row r="154" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:9" ht="16.2" thickTop="1">
       <c r="F154" s="117" t="s">
         <v>309</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:9">
       <c r="F155" s="81" t="s">
         <v>310</v>
       </c>
@@ -7371,7 +7369,7 @@
       <c r="H155" s="75"/>
       <c r="I155" s="71"/>
     </row>
-    <row r="156" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:9">
       <c r="F156" s="81" t="s">
         <v>311</v>
       </c>
@@ -7379,7 +7377,7 @@
       <c r="H156" s="23"/>
       <c r="I156" s="71"/>
     </row>
-    <row r="157" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:9">
       <c r="F157" s="74" t="s">
         <v>312</v>
       </c>
@@ -7387,7 +7385,7 @@
       <c r="H157" s="23"/>
       <c r="I157" s="71"/>
     </row>
-    <row r="158" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:9">
       <c r="F158" s="74" t="s">
         <v>313</v>
       </c>
@@ -7395,7 +7393,7 @@
       <c r="H158" s="23"/>
       <c r="I158" s="71"/>
     </row>
-    <row r="159" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:9">
       <c r="F159" s="77"/>
       <c r="G159" s="27" t="s">
         <v>485</v>
@@ -7403,7 +7401,7 @@
       <c r="H159" s="57"/>
       <c r="I159" s="71"/>
     </row>
-    <row r="160" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:9" ht="16.2" thickBot="1">
       <c r="F160" s="97" t="s">
         <v>488</v>
       </c>
@@ -7411,13 +7409,13 @@
       <c r="H160" s="99"/>
       <c r="I160" s="91"/>
     </row>
-    <row r="161" spans="6:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F161" s="77"/>
       <c r="G161" s="57"/>
       <c r="H161" s="57"/>
       <c r="I161" s="71"/>
     </row>
-    <row r="162" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:9" ht="16.2" thickTop="1">
       <c r="F162" s="112" t="s">
         <v>314</v>
       </c>
@@ -7431,7 +7429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:9">
       <c r="F163" s="74" t="s">
         <v>315</v>
       </c>
@@ -7439,7 +7437,7 @@
       <c r="H163" s="75"/>
       <c r="I163" s="71"/>
     </row>
-    <row r="164" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:9">
       <c r="F164" s="74" t="s">
         <v>316</v>
       </c>
@@ -7447,7 +7445,7 @@
       <c r="H164" s="23"/>
       <c r="I164" s="71"/>
     </row>
-    <row r="165" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:9">
       <c r="F165" s="74" t="s">
         <v>317</v>
       </c>
@@ -7455,7 +7453,7 @@
       <c r="H165" s="23"/>
       <c r="I165" s="71"/>
     </row>
-    <row r="166" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:9">
       <c r="F166" s="74" t="s">
         <v>318</v>
       </c>
@@ -7463,7 +7461,7 @@
       <c r="H166" s="23"/>
       <c r="I166" s="71"/>
     </row>
-    <row r="167" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:9">
       <c r="F167" s="77"/>
       <c r="G167" s="27" t="s">
         <v>485</v>
@@ -7471,7 +7469,7 @@
       <c r="H167" s="57"/>
       <c r="I167" s="71"/>
     </row>
-    <row r="168" spans="6:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:9" ht="16.2" thickBot="1">
       <c r="F168" s="97" t="s">
         <v>486</v>
       </c>
@@ -7479,13 +7477,13 @@
       <c r="H168" s="99"/>
       <c r="I168" s="91"/>
     </row>
-    <row r="169" spans="6:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F169" s="77"/>
       <c r="G169" s="57"/>
       <c r="H169" s="75"/>
       <c r="I169" s="71"/>
     </row>
-    <row r="170" spans="6:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="F170" s="102" t="s">
         <v>526</v>
       </c>
@@ -7493,13 +7491,13 @@
       <c r="H170" s="106"/>
       <c r="I170" s="96"/>
     </row>
-    <row r="171" spans="6:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="F171" s="72"/>
       <c r="G171" s="36"/>
       <c r="H171" s="75"/>
       <c r="I171" s="71"/>
     </row>
-    <row r="172" spans="6:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:9" ht="16.2" thickTop="1">
       <c r="F172" s="112" t="s">
         <v>319</v>
       </c>
@@ -7513,7 +7511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:9">
       <c r="F173" s="74" t="s">
         <v>481</v>
       </c>
@@ -7521,7 +7519,7 @@
       <c r="H173" s="75"/>
       <c r="I173" s="71"/>
     </row>
-    <row r="174" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:9">
       <c r="F174" s="77" t="s">
         <v>489</v>
       </c>
@@ -7529,7 +7527,7 @@
       <c r="H174" s="57"/>
       <c r="I174" s="71"/>
     </row>
-    <row r="175" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:9">
       <c r="F175" s="74" t="s">
         <v>482</v>
       </c>
@@ -7537,7 +7535,7 @@
       <c r="H175" s="23"/>
       <c r="I175" s="71"/>
     </row>
-    <row r="176" spans="6:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:9">
       <c r="F176" s="74" t="s">
         <v>483</v>
       </c>
@@ -7545,7 +7543,7 @@
       <c r="H176" s="23"/>
       <c r="I176" s="71"/>
     </row>
-    <row r="177" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:9">
       <c r="F177" s="74" t="s">
         <v>484</v>
       </c>
@@ -7553,7 +7551,7 @@
       <c r="H177" s="23"/>
       <c r="I177" s="71"/>
     </row>
-    <row r="178" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:9">
       <c r="F178" s="77"/>
       <c r="G178" s="27" t="s">
         <v>485</v>
@@ -7561,7 +7559,7 @@
       <c r="H178" s="57"/>
       <c r="I178" s="71"/>
     </row>
-    <row r="179" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:9" ht="16.2" thickBot="1">
       <c r="F179" s="97" t="s">
         <v>487</v>
       </c>
@@ -7569,13 +7567,13 @@
       <c r="H179" s="99"/>
       <c r="I179" s="91"/>
     </row>
-    <row r="180" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F180" s="139"/>
       <c r="G180" s="134"/>
       <c r="H180" s="134"/>
       <c r="I180" s="136"/>
     </row>
-    <row r="181" spans="5:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:9" ht="16.2" thickTop="1">
       <c r="F181" s="112" t="s">
         <v>587</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:9">
       <c r="F182" s="74" t="s">
         <v>588</v>
       </c>
@@ -7597,7 +7595,7 @@
       <c r="H182" s="75"/>
       <c r="I182" s="136"/>
     </row>
-    <row r="183" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:9">
       <c r="F183" s="74" t="s">
         <v>589</v>
       </c>
@@ -7605,7 +7603,7 @@
       <c r="H183" s="130"/>
       <c r="I183" s="136"/>
     </row>
-    <row r="184" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:9">
       <c r="F184" s="74" t="s">
         <v>590</v>
       </c>
@@ -7613,7 +7611,7 @@
       <c r="H184" s="130"/>
       <c r="I184" s="136"/>
     </row>
-    <row r="185" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:9">
       <c r="F185" s="74" t="s">
         <v>591</v>
       </c>
@@ -7621,7 +7619,7 @@
       <c r="H185" s="130"/>
       <c r="I185" s="136"/>
     </row>
-    <row r="186" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:9">
       <c r="F186" s="139"/>
       <c r="G186" s="132" t="s">
         <v>485</v>
@@ -7629,7 +7627,7 @@
       <c r="H186" s="134"/>
       <c r="I186" s="136"/>
     </row>
-    <row r="187" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:9" ht="16.2" thickBot="1">
       <c r="F187" s="97" t="s">
         <v>592</v>
       </c>
@@ -7637,13 +7635,13 @@
       <c r="H187" s="99"/>
       <c r="I187" s="91"/>
     </row>
-    <row r="188" spans="5:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="F188" s="139"/>
       <c r="G188" s="134"/>
       <c r="H188" s="134"/>
       <c r="I188" s="136"/>
     </row>
-    <row r="189" spans="5:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:9" ht="16.2" thickTop="1">
       <c r="F189" s="112" t="s">
         <v>529</v>
       </c>
@@ -7657,7 +7655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:9" ht="15" thickBot="1">
       <c r="F190" s="143" t="s">
         <v>530</v>
       </c>
@@ -7665,146 +7663,146 @@
       <c r="H190" s="145"/>
       <c r="I190" s="146"/>
     </row>
-    <row r="191" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:9">
       <c r="F191" s="124"/>
       <c r="G191" s="124"/>
       <c r="H191" s="124"/>
       <c r="I191" s="124"/>
     </row>
-    <row r="192" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:9">
       <c r="E192" s="124"/>
       <c r="F192" s="124"/>
       <c r="G192" s="124"/>
       <c r="H192" s="124"/>
       <c r="I192" s="124"/>
     </row>
-    <row r="193" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:9">
       <c r="E193" s="124"/>
       <c r="F193" s="124"/>
       <c r="G193" s="124"/>
       <c r="H193" s="124"/>
       <c r="I193" s="124"/>
     </row>
-    <row r="194" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:9">
       <c r="E194" s="124"/>
       <c r="F194" s="124"/>
       <c r="G194" s="124"/>
       <c r="H194" s="124"/>
       <c r="I194" s="124"/>
     </row>
-    <row r="195" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:9">
       <c r="E195" s="124"/>
       <c r="F195" s="124"/>
       <c r="G195" s="124"/>
       <c r="H195" s="124"/>
       <c r="I195" s="124"/>
     </row>
-    <row r="196" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:9">
       <c r="E196" s="124"/>
       <c r="F196" s="124"/>
       <c r="G196" s="124"/>
       <c r="H196" s="124"/>
       <c r="I196" s="124"/>
     </row>
-    <row r="197" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:9">
       <c r="E197" s="124"/>
       <c r="F197" s="124"/>
       <c r="G197" s="124"/>
       <c r="H197" s="124"/>
       <c r="I197" s="124"/>
     </row>
-    <row r="198" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:9">
       <c r="E198" s="124"/>
       <c r="F198" s="124"/>
       <c r="G198" s="124"/>
       <c r="H198" s="124"/>
       <c r="I198" s="124"/>
     </row>
-    <row r="199" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:9">
       <c r="E199" s="124"/>
       <c r="F199" s="124"/>
       <c r="G199" s="124"/>
       <c r="H199" s="124"/>
       <c r="I199" s="124"/>
     </row>
-    <row r="200" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:9">
       <c r="E200" s="124"/>
       <c r="F200" s="124"/>
       <c r="G200" s="124"/>
       <c r="H200" s="124"/>
       <c r="I200" s="124"/>
     </row>
-    <row r="201" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:9">
       <c r="E201" s="124"/>
       <c r="F201" s="124"/>
       <c r="G201" s="124"/>
       <c r="H201" s="124"/>
       <c r="I201" s="124"/>
     </row>
-    <row r="202" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:9">
       <c r="E202" s="124"/>
       <c r="F202" s="124"/>
       <c r="G202" s="124"/>
       <c r="H202" s="124"/>
       <c r="I202" s="124"/>
     </row>
-    <row r="203" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:9">
       <c r="E203" s="124"/>
       <c r="F203" s="124"/>
       <c r="G203" s="124"/>
       <c r="H203" s="124"/>
       <c r="I203" s="124"/>
     </row>
-    <row r="204" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:9">
       <c r="E204" s="124"/>
       <c r="F204" s="124"/>
       <c r="G204" s="124"/>
       <c r="H204" s="124"/>
       <c r="I204" s="124"/>
     </row>
-    <row r="205" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:9">
       <c r="E205" s="124"/>
       <c r="F205" s="124"/>
       <c r="G205" s="124"/>
       <c r="H205" s="124"/>
       <c r="I205" s="124"/>
     </row>
-    <row r="206" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:9">
       <c r="E206" s="124"/>
       <c r="F206" s="124"/>
       <c r="G206" s="124"/>
       <c r="H206" s="124"/>
       <c r="I206" s="124"/>
     </row>
-    <row r="207" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:9">
       <c r="E207" s="124"/>
       <c r="F207" s="124"/>
       <c r="G207" s="124"/>
       <c r="H207" s="124"/>
       <c r="I207" s="124"/>
     </row>
-    <row r="208" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:9">
       <c r="E208" s="124"/>
       <c r="F208" s="124"/>
       <c r="G208" s="124"/>
       <c r="H208" s="124"/>
       <c r="I208" s="124"/>
     </row>
-    <row r="209" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:9">
       <c r="E209" s="124"/>
       <c r="F209" s="124"/>
       <c r="G209" s="124"/>
       <c r="H209" s="124"/>
       <c r="I209" s="124"/>
     </row>
-    <row r="210" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:9">
       <c r="E210" s="124"/>
       <c r="F210" s="124"/>
       <c r="G210" s="124"/>
       <c r="H210" s="124"/>
       <c r="I210" s="124"/>
     </row>
-    <row r="211" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:9">
       <c r="E211" s="124"/>
       <c r="F211" s="124"/>
       <c r="G211" s="124"/>
@@ -7928,23 +7926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="10" t="s">
         <v>238</v>
       </c>
@@ -7958,7 +7956,7 @@
       <c r="H1" s="173"/>
       <c r="I1" s="174"/>
     </row>
-    <row r="2" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="112.5" customHeight="1">
       <c r="A2" s="170" t="s">
         <v>533</v>
       </c>
@@ -7969,7 +7967,7 @@
       <c r="H2" s="63"/>
       <c r="I2" s="136"/>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="21" t="s">
         <v>585</v>
       </c>
@@ -7982,7 +7980,7 @@
       <c r="H3" s="63"/>
       <c r="I3" s="136"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.6">
       <c r="F4" s="64" t="s">
         <v>480</v>
       </c>
@@ -7990,7 +7988,7 @@
       <c r="H4" s="63"/>
       <c r="I4" s="136"/>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.2" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>362</v>
       </c>
@@ -8005,7 +8003,7 @@
       <c r="H5" s="90"/>
       <c r="I5" s="91"/>
     </row>
-    <row r="6" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.2" thickTop="1">
       <c r="A6" s="33"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -8022,7 +8020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="72" t="s">
         <v>273</v>
       </c>
@@ -8042,7 +8040,7 @@
       <c r="H7" s="75"/>
       <c r="I7" s="136"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="74" t="s">
         <v>274</v>
       </c>
@@ -8058,7 +8056,7 @@
       <c r="H8" s="75"/>
       <c r="I8" s="136"/>
     </row>
-    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="138" t="s">
         <v>275</v>
       </c>
@@ -8074,7 +8072,7 @@
       <c r="H9" s="93"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A10" s="138" t="s">
         <v>276</v>
       </c>
@@ -8088,7 +8086,7 @@
       <c r="H10" s="95"/>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16.2" thickTop="1">
       <c r="A11" s="138" t="s">
         <v>277</v>
       </c>
@@ -8108,7 +8106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="138" t="s">
         <v>278</v>
       </c>
@@ -8122,7 +8120,7 @@
       <c r="H12" s="75"/>
       <c r="I12" s="136"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="138" t="s">
         <v>279</v>
       </c>
@@ -8136,7 +8134,7 @@
       <c r="H13" s="130"/>
       <c r="I13" s="136"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="139"/>
       <c r="B14" s="132" t="s">
         <v>501</v>
@@ -8154,7 +8152,7 @@
       <c r="H14" s="130"/>
       <c r="I14" s="136"/>
     </row>
-    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="103" t="s">
         <v>536</v>
       </c>
@@ -8168,7 +8166,7 @@
       <c r="H15" s="130"/>
       <c r="I15" s="136"/>
     </row>
-    <row r="16" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" thickTop="1">
       <c r="A16" s="35"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -8180,7 +8178,7 @@
       <c r="H16" s="134"/>
       <c r="I16" s="136"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.2" thickBot="1">
       <c r="A17" s="72" t="s">
         <v>268</v>
       </c>
@@ -8200,12 +8198,12 @@
       <c r="H17" s="99"/>
       <c r="I17" s="91"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A18" s="74" t="s">
         <v>269</v>
       </c>
       <c r="B18" s="131" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C18" s="75"/>
       <c r="D18" s="136"/>
@@ -8214,12 +8212,12 @@
       <c r="H18" s="101"/>
       <c r="I18" s="96"/>
     </row>
-    <row r="19" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.2" thickTop="1">
       <c r="A19" s="74" t="s">
         <v>270</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C19" s="75"/>
       <c r="D19" s="136"/>
@@ -8236,7 +8234,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="92" t="s">
         <v>271</v>
       </c>
@@ -8254,7 +8252,7 @@
       <c r="H20" s="93"/>
       <c r="I20" s="104"/>
     </row>
-    <row r="21" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A21" s="35"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -8264,7 +8262,7 @@
       <c r="H21" s="101"/>
       <c r="I21" s="96"/>
     </row>
-    <row r="22" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16.2" thickTop="1">
       <c r="A22" s="72" t="s">
         <v>268</v>
       </c>
@@ -8290,7 +8288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="74" t="s">
         <v>269</v>
       </c>
@@ -8306,7 +8304,7 @@
       <c r="H23" s="75"/>
       <c r="I23" s="136"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="74" t="s">
         <v>270</v>
       </c>
@@ -8322,7 +8320,7 @@
       <c r="H24" s="75"/>
       <c r="I24" s="136"/>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="92" t="s">
         <v>271</v>
       </c>
@@ -8340,7 +8338,7 @@
       <c r="H25" s="75"/>
       <c r="I25" s="136"/>
     </row>
-    <row r="26" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" thickTop="1">
       <c r="A26" s="36"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -8352,7 +8350,7 @@
       <c r="H26" s="131"/>
       <c r="I26" s="136"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.6">
       <c r="A27" s="80" t="s">
         <v>309</v>
       </c>
@@ -8372,12 +8370,12 @@
       <c r="H27" s="130"/>
       <c r="I27" s="136"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="81" t="s">
         <v>310</v>
       </c>
       <c r="B28" s="131" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="136"/>
@@ -8388,7 +8386,7 @@
       <c r="H28" s="130"/>
       <c r="I28" s="136"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="81" t="s">
         <v>311</v>
       </c>
@@ -8411,7 +8409,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="74" t="s">
         <v>312</v>
       </c>
@@ -8426,7 +8424,7 @@
       <c r="H30" s="93"/>
       <c r="I30" s="104"/>
     </row>
-    <row r="31" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A31" s="74" t="s">
         <v>313</v>
       </c>
@@ -8438,7 +8436,7 @@
       <c r="H31" s="106"/>
       <c r="I31" s="96"/>
     </row>
-    <row r="32" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="16.2" thickTop="1">
       <c r="A32" s="139"/>
       <c r="B32" s="132" t="s">
         <v>485</v>
@@ -8452,7 +8450,7 @@
       <c r="H32" s="75"/>
       <c r="I32" s="136"/>
     </row>
-    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="16.2" thickBot="1">
       <c r="A33" s="97" t="s">
         <v>488</v>
       </c>
@@ -8466,7 +8464,7 @@
       <c r="H33" s="75"/>
       <c r="I33" s="136"/>
     </row>
-    <row r="34" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16.2" thickTop="1">
       <c r="A34" s="34"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -8484,7 +8482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.6">
       <c r="A35" s="80" t="s">
         <v>309</v>
       </c>
@@ -8502,12 +8500,12 @@
       <c r="H35" s="75"/>
       <c r="I35" s="136"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="81" t="s">
         <v>310</v>
       </c>
       <c r="B36" s="131" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="136"/>
@@ -8518,7 +8516,7 @@
       <c r="H36" s="75"/>
       <c r="I36" s="136"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="81" t="s">
         <v>311</v>
       </c>
@@ -8536,7 +8534,7 @@
       <c r="H37" s="130"/>
       <c r="I37" s="136"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="74" t="s">
         <v>312</v>
       </c>
@@ -8550,7 +8548,7 @@
       <c r="H38" s="130"/>
       <c r="I38" s="136"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="74" t="s">
         <v>313</v>
       </c>
@@ -8564,7 +8562,7 @@
       <c r="H39" s="133"/>
       <c r="I39" s="136"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="139"/>
       <c r="B40" s="132" t="s">
         <v>485</v>
@@ -8578,7 +8576,7 @@
       <c r="H40" s="133"/>
       <c r="I40" s="136"/>
     </row>
-    <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.2" thickBot="1">
       <c r="A41" s="97" t="s">
         <v>488</v>
       </c>
@@ -8594,7 +8592,7 @@
       <c r="H41" s="133"/>
       <c r="I41" s="136"/>
     </row>
-    <row r="42" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" thickTop="1">
       <c r="A42" s="36"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -8606,7 +8604,7 @@
       <c r="H42" s="75"/>
       <c r="I42" s="136"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15.6">
       <c r="A43" s="72" t="s">
         <v>280</v>
       </c>
@@ -8620,7 +8618,7 @@
       <c r="H43" s="131"/>
       <c r="I43" s="136"/>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15.6">
       <c r="A44" s="72"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -8632,7 +8630,7 @@
       <c r="H44" s="133"/>
       <c r="I44" s="136"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="78" t="s">
         <v>281</v>
       </c>
@@ -8652,7 +8650,7 @@
       <c r="H45" s="133"/>
       <c r="I45" s="136"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="78"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -8664,12 +8662,12 @@
       <c r="H46" s="131"/>
       <c r="I46" s="136"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="138" t="s">
         <v>282</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C47" s="75"/>
       <c r="D47" s="136"/>
@@ -8680,7 +8678,7 @@
       <c r="H47" s="75"/>
       <c r="I47" s="136"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="138" t="s">
         <v>490</v>
       </c>
@@ -8694,7 +8692,7 @@
       <c r="H48" s="133"/>
       <c r="I48" s="136"/>
     </row>
-    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15.6">
       <c r="A49" s="138" t="s">
         <v>491</v>
       </c>
@@ -8708,7 +8706,7 @@
       <c r="H49" s="75"/>
       <c r="I49" s="136"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="138" t="s">
         <v>283</v>
       </c>
@@ -8722,7 +8720,7 @@
       <c r="H50" s="75"/>
       <c r="I50" s="136"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="138" t="s">
         <v>284</v>
       </c>
@@ -8736,7 +8734,7 @@
       <c r="H51" s="133"/>
       <c r="I51" s="136"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="138" t="s">
         <v>285</v>
       </c>
@@ -8750,7 +8748,7 @@
       <c r="H52" s="130"/>
       <c r="I52" s="136"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="138" t="s">
         <v>286</v>
       </c>
@@ -8764,7 +8762,7 @@
       <c r="H53" s="133"/>
       <c r="I53" s="136"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="138" t="s">
         <v>287</v>
       </c>
@@ -8778,7 +8776,7 @@
       <c r="H54" s="131"/>
       <c r="I54" s="136"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="138" t="s">
         <v>288</v>
       </c>
@@ -8792,7 +8790,7 @@
       <c r="H55" s="130"/>
       <c r="I55" s="136"/>
     </row>
-    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15.6">
       <c r="A56" s="138" t="s">
         <v>289</v>
       </c>
@@ -8806,7 +8804,7 @@
       <c r="H56" s="75"/>
       <c r="I56" s="136"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="138" t="s">
         <v>290</v>
       </c>
@@ -8820,7 +8818,7 @@
       <c r="H57" s="130"/>
       <c r="I57" s="136"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="138" t="s">
         <v>291</v>
       </c>
@@ -8834,7 +8832,7 @@
       <c r="H58" s="130"/>
       <c r="I58" s="136"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="138" t="s">
         <v>292</v>
       </c>
@@ -8848,7 +8846,7 @@
       <c r="H59" s="131"/>
       <c r="I59" s="136"/>
     </row>
-    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15.6">
       <c r="A60" s="72" t="s">
         <v>293</v>
       </c>
@@ -8862,7 +8860,7 @@
       <c r="H60" s="131"/>
       <c r="I60" s="136"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="74" t="s">
         <v>294</v>
       </c>
@@ -8876,7 +8874,7 @@
       <c r="H61" s="131"/>
       <c r="I61" s="136"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="74" t="s">
         <v>295</v>
       </c>
@@ -8890,7 +8888,7 @@
       <c r="H62" s="131"/>
       <c r="I62" s="136"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="138" t="s">
         <v>296</v>
       </c>
@@ -8904,7 +8902,7 @@
       <c r="H63" s="131"/>
       <c r="I63" s="136"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="138" t="s">
         <v>297</v>
       </c>
@@ -8918,7 +8916,7 @@
       <c r="H64" s="130"/>
       <c r="I64" s="136"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="138" t="s">
         <v>298</v>
       </c>
@@ -8930,7 +8928,7 @@
       <c r="H65" s="75"/>
       <c r="I65" s="136"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="138" t="s">
         <v>299</v>
       </c>
@@ -8950,7 +8948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15.6">
       <c r="A67" s="72" t="s">
         <v>300</v>
       </c>
@@ -8962,7 +8960,7 @@
       <c r="H67" s="75"/>
       <c r="I67" s="136"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="74" t="s">
         <v>301</v>
       </c>
@@ -8976,7 +8974,7 @@
       <c r="H68" s="75"/>
       <c r="I68" s="136"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="74" t="s">
         <v>302</v>
       </c>
@@ -8990,7 +8988,7 @@
       <c r="H69" s="130"/>
       <c r="I69" s="136"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="74" t="s">
         <v>303</v>
       </c>
@@ -9004,7 +9002,7 @@
       <c r="H70" s="130"/>
       <c r="I70" s="136"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="74" t="s">
         <v>304</v>
       </c>
@@ -9018,7 +9016,7 @@
       <c r="H71" s="75"/>
       <c r="I71" s="136"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="74" t="s">
         <v>305</v>
       </c>
@@ -9032,7 +9030,7 @@
       <c r="H72" s="133"/>
       <c r="I72" s="136"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="74" t="s">
         <v>306</v>
       </c>
@@ -9046,7 +9044,7 @@
       <c r="H73" s="133"/>
       <c r="I73" s="136"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="74" t="s">
         <v>307</v>
       </c>
@@ -9060,7 +9058,7 @@
       <c r="H74" s="75"/>
       <c r="I74" s="136"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="74" t="s">
         <v>308</v>
       </c>
@@ -9074,7 +9072,7 @@
       <c r="H75" s="131"/>
       <c r="I75" s="136"/>
     </row>
-    <row r="76" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15" thickBot="1">
       <c r="A76" s="74"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -9087,7 +9085,7 @@
       <c r="H76" s="133"/>
       <c r="I76" s="136"/>
     </row>
-    <row r="77" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16.2" thickTop="1">
       <c r="A77" s="112" t="s">
         <v>529</v>
       </c>
@@ -9108,12 +9106,12 @@
       <c r="H77" s="75"/>
       <c r="I77" s="136"/>
     </row>
-    <row r="78" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" s="143" t="s">
         <v>530</v>
       </c>
       <c r="B78" s="144" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C78" s="145"/>
       <c r="D78" s="146"/>
@@ -9125,7 +9123,7 @@
       <c r="H78" s="75"/>
       <c r="I78" s="136"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="35"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -9138,7 +9136,7 @@
       <c r="H79" s="133"/>
       <c r="I79" s="136"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="35"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -9151,7 +9149,7 @@
       <c r="H80" s="130"/>
       <c r="I80" s="136"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="35"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -9164,7 +9162,7 @@
       <c r="H81" s="133"/>
       <c r="I81" s="136"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="35"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -9177,7 +9175,7 @@
       <c r="H82" s="75"/>
       <c r="I82" s="136"/>
     </row>
-    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15.6">
       <c r="A83" s="35"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -9190,7 +9188,7 @@
       <c r="H83" s="75"/>
       <c r="I83" s="136"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="35"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -9203,7 +9201,7 @@
       <c r="H84" s="130"/>
       <c r="I84" s="136"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="35"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -9216,7 +9214,7 @@
       <c r="H85" s="130"/>
       <c r="I85" s="136"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="35"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -9229,7 +9227,7 @@
       <c r="H86" s="131"/>
       <c r="I86" s="136"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="35"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -9242,7 +9240,7 @@
       <c r="H87" s="131"/>
       <c r="I87" s="136"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="35"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -9255,7 +9253,7 @@
       <c r="H88" s="131"/>
       <c r="I88" s="136"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="35"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -9268,7 +9266,7 @@
       <c r="H89" s="131"/>
       <c r="I89" s="136"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="35"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -9281,7 +9279,7 @@
       <c r="H90" s="131"/>
       <c r="I90" s="136"/>
     </row>
-    <row r="91" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="16.2" thickBot="1">
       <c r="A91" s="35"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -9294,7 +9292,7 @@
       <c r="H91" s="108"/>
       <c r="I91" s="91"/>
     </row>
-    <row r="92" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A92" s="35"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -9305,7 +9303,7 @@
       <c r="H92" s="101"/>
       <c r="I92" s="96"/>
     </row>
-    <row r="93" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16.2" thickTop="1">
       <c r="A93" s="35"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -9324,7 +9322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="35"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -9337,7 +9335,7 @@
       <c r="H94" s="75"/>
       <c r="I94" s="136"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="35"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -9350,7 +9348,7 @@
       <c r="H95" s="130"/>
       <c r="I95" s="136"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="35"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -9363,7 +9361,7 @@
       <c r="H96" s="130"/>
       <c r="I96" s="136"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="35"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -9376,7 +9374,7 @@
       <c r="H97" s="130"/>
       <c r="I97" s="136"/>
     </row>
-    <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.6">
       <c r="A98" s="35"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -9389,7 +9387,7 @@
       <c r="H98" s="134"/>
       <c r="I98" s="136"/>
     </row>
-    <row r="99" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="16.2" thickBot="1">
       <c r="A99" s="35"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -9402,7 +9400,7 @@
       <c r="H99" s="99"/>
       <c r="I99" s="91"/>
     </row>
-    <row r="100" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A100" s="35"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -9413,7 +9411,7 @@
       <c r="H100" s="106"/>
       <c r="I100" s="96"/>
     </row>
-    <row r="101" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="16.2" thickTop="1">
       <c r="A101" s="35"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -9432,7 +9430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="35"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -9445,7 +9443,7 @@
       <c r="H102" s="75"/>
       <c r="I102" s="136"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="35"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -9458,7 +9456,7 @@
       <c r="H103" s="130"/>
       <c r="I103" s="136"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="35"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -9471,7 +9469,7 @@
       <c r="H104" s="130"/>
       <c r="I104" s="136"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="35"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -9484,7 +9482,7 @@
       <c r="H105" s="130"/>
       <c r="I105" s="136"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="35"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -9497,7 +9495,7 @@
       <c r="H106" s="134"/>
       <c r="I106" s="136"/>
     </row>
-    <row r="107" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16.2" thickBot="1">
       <c r="A107" s="35"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -9509,7 +9507,7 @@
       <c r="H107" s="99"/>
       <c r="I107" s="91"/>
     </row>
-    <row r="108" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A108" s="34"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -9519,7 +9517,7 @@
       <c r="H108" s="101"/>
       <c r="I108" s="96"/>
     </row>
-    <row r="109" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A109" s="35"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -9531,7 +9529,7 @@
       <c r="H109" s="106"/>
       <c r="I109" s="96"/>
     </row>
-    <row r="110" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A110" s="34"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -9541,7 +9539,7 @@
       <c r="H110" s="75"/>
       <c r="I110" s="136"/>
     </row>
-    <row r="111" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="16.2" thickTop="1">
       <c r="A111" s="34"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -9559,7 +9557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15.6">
       <c r="A112" s="34"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -9571,7 +9569,7 @@
       <c r="H112" s="75"/>
       <c r="I112" s="136"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="65"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -9583,7 +9581,7 @@
       <c r="H113" s="134"/>
       <c r="I113" s="136"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="65"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -9595,7 +9593,7 @@
       <c r="H114" s="130"/>
       <c r="I114" s="136"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" s="65"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -9607,7 +9605,7 @@
       <c r="H115" s="130"/>
       <c r="I115" s="136"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" s="65"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -9619,7 +9617,7 @@
       <c r="H116" s="130"/>
       <c r="I116" s="136"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="65"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -9631,7 +9629,7 @@
       <c r="H117" s="134"/>
       <c r="I117" s="136"/>
     </row>
-    <row r="118" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="16.2" thickBot="1">
       <c r="A118" s="65"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -9643,7 +9641,7 @@
       <c r="H118" s="99"/>
       <c r="I118" s="91"/>
     </row>
-    <row r="119" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="16.8" thickTop="1" thickBot="1">
       <c r="A119" s="34"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -9653,7 +9651,7 @@
       <c r="H119" s="134"/>
       <c r="I119" s="136"/>
     </row>
-    <row r="120" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="16.2" thickTop="1">
       <c r="A120" s="65"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -9671,7 +9669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15.6">
       <c r="A121" s="34"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -9683,7 +9681,7 @@
       <c r="H121" s="75"/>
       <c r="I121" s="136"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="65"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -9696,7 +9694,7 @@
       <c r="H122" s="130"/>
       <c r="I122" s="136"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="65"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -9709,7 +9707,7 @@
       <c r="H123" s="130"/>
       <c r="I123" s="136"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="135"/>
@@ -9721,7 +9719,7 @@
       <c r="H124" s="130"/>
       <c r="I124" s="136"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
       <c r="D125" s="135"/>
@@ -9733,7 +9731,7 @@
       <c r="H125" s="134"/>
       <c r="I125" s="136"/>
     </row>
-    <row r="126" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="16.2" thickBot="1">
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
       <c r="D126" s="135"/>
@@ -9745,7 +9743,7 @@
       <c r="H126" s="99"/>
       <c r="I126" s="91"/>
     </row>
-    <row r="127" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
       <c r="D127" s="135"/>
@@ -9755,7 +9753,7 @@
       <c r="H127" s="134"/>
       <c r="I127" s="136"/>
     </row>
-    <row r="128" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="16.2" thickTop="1">
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
       <c r="D128" s="135"/>
@@ -9773,7 +9771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="15" thickBot="1">
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
       <c r="D129" s="135"/>
@@ -9785,13 +9783,13 @@
       <c r="H129" s="145"/>
       <c r="I129" s="146"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9">
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
       <c r="D130" s="135"/>
       <c r="E130" s="135"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9">
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
       <c r="D131" s="135"/>
@@ -9801,7 +9799,7 @@
       <c r="H131" s="135"/>
       <c r="I131" s="135"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9">
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
       <c r="D132" s="135"/>
@@ -9811,7 +9809,7 @@
       <c r="H132" s="135"/>
       <c r="I132" s="135"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9">
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
       <c r="D133" s="135"/>
@@ -9821,7 +9819,7 @@
       <c r="H133" s="135"/>
       <c r="I133" s="135"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9">
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
       <c r="D134" s="135"/>
@@ -9831,7 +9829,7 @@
       <c r="H134" s="135"/>
       <c r="I134" s="135"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9">
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="135"/>
@@ -9841,7 +9839,7 @@
       <c r="H135" s="135"/>
       <c r="I135" s="135"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9">
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
       <c r="D136" s="135"/>
@@ -9937,19 +9935,19 @@
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="55.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>207</v>
       </c>
@@ -9961,7 +9959,7 @@
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="175" t="s">
         <v>432</v>
       </c>
@@ -9973,7 +9971,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="35"/>
       <c r="B3" s="124"/>
       <c r="C3" s="124"/>
@@ -9983,7 +9981,7 @@
       <c r="G3" s="124"/>
       <c r="H3" s="124"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>239</v>
       </c>
@@ -9995,7 +9993,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="30" t="s">
         <v>208</v>
       </c>
@@ -10021,7 +10019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="31" t="s">
         <v>209</v>
       </c>
@@ -10033,7 +10031,7 @@
       <c r="G6" s="124"/>
       <c r="H6" s="124"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="35" t="s">
         <v>217</v>
       </c>
@@ -10045,7 +10043,7 @@
       <c r="G7" s="124"/>
       <c r="H7" s="124"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="31" t="s">
         <v>211</v>
       </c>
@@ -10057,7 +10055,7 @@
       <c r="G8" s="131"/>
       <c r="H8" s="124"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="31" t="s">
         <v>212</v>
       </c>
@@ -10069,7 +10067,7 @@
       <c r="G9" s="131"/>
       <c r="H9" s="124"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="31" t="s">
         <v>213</v>
       </c>
@@ -10081,7 +10079,7 @@
       <c r="G10" s="131"/>
       <c r="H10" s="124"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="31" t="s">
         <v>214</v>
       </c>
@@ -10093,7 +10091,7 @@
       <c r="G11" s="124"/>
       <c r="H11" s="124"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="31" t="s">
         <v>215</v>
       </c>
@@ -10105,7 +10103,7 @@
       <c r="G12" s="131"/>
       <c r="H12" s="124"/>
     </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="32"/>
       <c r="B13" s="124"/>
       <c r="C13" s="124"/>
@@ -10115,7 +10113,7 @@
       <c r="G13" s="124"/>
       <c r="H13" s="124"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="50" t="s">
         <v>216</v>
       </c>
@@ -10141,7 +10139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
         <v>209</v>
       </c>
@@ -10153,7 +10151,7 @@
       <c r="G15" s="124"/>
       <c r="H15" s="124"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="35" t="s">
         <v>217</v>
       </c>
@@ -10165,7 +10163,7 @@
       <c r="G16" s="124"/>
       <c r="H16" s="124"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="31" t="s">
         <v>211</v>
       </c>
@@ -10177,7 +10175,7 @@
       <c r="G17" s="131"/>
       <c r="H17" s="124"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="31" t="s">
         <v>212</v>
       </c>
@@ -10189,7 +10187,7 @@
       <c r="G18" s="131"/>
       <c r="H18" s="124"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="31" t="s">
         <v>213</v>
       </c>
@@ -10201,7 +10199,7 @@
       <c r="G19" s="131"/>
       <c r="H19" s="124"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
         <v>214</v>
       </c>
@@ -10213,7 +10211,7 @@
       <c r="G20" s="124"/>
       <c r="H20" s="124"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="31" t="s">
         <v>215</v>
       </c>
@@ -10225,7 +10223,7 @@
       <c r="G21" s="131"/>
       <c r="H21" s="124"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="20"/>
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
@@ -10235,7 +10233,7 @@
       <c r="G22" s="124"/>
       <c r="H22" s="124"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="33" t="s">
         <v>225</v>
       </c>
@@ -10261,7 +10259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="31" t="s">
         <v>209</v>
       </c>
@@ -10273,7 +10271,7 @@
       <c r="G24" s="124"/>
       <c r="H24" s="124"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="35" t="s">
         <v>217</v>
       </c>
@@ -10285,7 +10283,7 @@
       <c r="G25" s="124"/>
       <c r="H25" s="124"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="35" t="s">
         <v>232</v>
       </c>
@@ -10297,7 +10295,7 @@
       <c r="G26" s="131"/>
       <c r="H26" s="124"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="20"/>
       <c r="B27" s="124"/>
       <c r="C27" s="124"/>
@@ -10307,7 +10305,7 @@
       <c r="G27" s="124"/>
       <c r="H27" s="124"/>
     </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="33" t="s">
         <v>237</v>
       </c>
@@ -10333,7 +10331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="31" t="s">
         <v>209</v>
       </c>
@@ -10345,7 +10343,7 @@
       <c r="G29" s="124"/>
       <c r="H29" s="124"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="35" t="s">
         <v>217</v>
       </c>
@@ -10357,7 +10355,7 @@
       <c r="G30" s="124"/>
       <c r="H30" s="124"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="35" t="s">
         <v>232</v>
       </c>
@@ -10369,7 +10367,7 @@
       <c r="G31" s="131"/>
       <c r="H31" s="124"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="35"/>
       <c r="B32" s="124"/>
       <c r="C32" s="124"/>
@@ -10379,7 +10377,7 @@
       <c r="G32" s="124"/>
       <c r="H32" s="124"/>
     </row>
-    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="21" t="s">
         <v>240</v>
       </c>
@@ -10391,7 +10389,7 @@
       <c r="G33" s="124"/>
       <c r="H33" s="124"/>
     </row>
-    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="34" t="s">
         <v>223</v>
       </c>
@@ -10417,7 +10415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="31" t="s">
         <v>209</v>
       </c>
@@ -10429,7 +10427,7 @@
       <c r="G35" s="124"/>
       <c r="H35" s="124"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
         <v>217</v>
       </c>
@@ -10441,7 +10439,7 @@
       <c r="G36" s="124"/>
       <c r="H36" s="124"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="35" t="s">
         <v>232</v>
       </c>
@@ -10453,7 +10451,7 @@
       <c r="G37" s="131"/>
       <c r="H37" s="124"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="35"/>
       <c r="B38" s="124"/>
       <c r="C38" s="124"/>
@@ -10463,7 +10461,7 @@
       <c r="G38" s="124"/>
       <c r="H38" s="124"/>
     </row>
-    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="33" t="s">
         <v>219</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="31" t="s">
         <v>209</v>
       </c>
@@ -10501,7 +10499,7 @@
       <c r="G40" s="124"/>
       <c r="H40" s="124"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="35" t="s">
         <v>217</v>
       </c>
@@ -10513,7 +10511,7 @@
       <c r="G41" s="124"/>
       <c r="H41" s="124"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="35" t="s">
         <v>232</v>
       </c>
@@ -10525,7 +10523,7 @@
       <c r="G42" s="131"/>
       <c r="H42" s="124"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="20"/>
       <c r="B43" s="124"/>
       <c r="C43" s="124"/>
@@ -10535,7 +10533,7 @@
       <c r="G43" s="124"/>
       <c r="H43" s="124"/>
     </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="33" t="s">
         <v>227</v>
       </c>
@@ -10561,7 +10559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="31" t="s">
         <v>209</v>
       </c>
@@ -10573,7 +10571,7 @@
       <c r="G45" s="124"/>
       <c r="H45" s="124"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="35" t="s">
         <v>217</v>
       </c>
@@ -10585,7 +10583,7 @@
       <c r="G46" s="124"/>
       <c r="H46" s="124"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="35" t="s">
         <v>218</v>
       </c>
@@ -10597,7 +10595,7 @@
       <c r="G47" s="131"/>
       <c r="H47" s="124"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="20"/>
       <c r="B48" s="124"/>
       <c r="C48" s="124"/>
@@ -10607,7 +10605,7 @@
       <c r="G48" s="124"/>
       <c r="H48" s="124"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="33" t="s">
         <v>498</v>
       </c>
@@ -10633,7 +10631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="31" t="s">
         <v>209</v>
       </c>
@@ -10645,7 +10643,7 @@
       <c r="G50" s="124"/>
       <c r="H50" s="124"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="35" t="s">
         <v>217</v>
       </c>
@@ -10657,7 +10655,7 @@
       <c r="G51" s="124"/>
       <c r="H51" s="124"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="35" t="s">
         <v>218</v>
       </c>
@@ -10669,7 +10667,7 @@
       <c r="G52" s="131"/>
       <c r="H52" s="124"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="35"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -10679,7 +10677,7 @@
       <c r="G53" s="36"/>
       <c r="H53" s="124"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="33" t="s">
         <v>228</v>
       </c>
@@ -10705,7 +10703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="31" t="s">
         <v>209</v>
       </c>
@@ -10717,7 +10715,7 @@
       <c r="G55" s="124"/>
       <c r="H55" s="124"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="35" t="s">
         <v>217</v>
       </c>
@@ -10729,7 +10727,7 @@
       <c r="G56" s="124"/>
       <c r="H56" s="124"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="35" t="s">
         <v>218</v>
       </c>
@@ -10741,7 +10739,7 @@
       <c r="G57" s="131"/>
       <c r="H57" s="124"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="20"/>
       <c r="B58" s="124"/>
       <c r="C58" s="124"/>
@@ -10751,7 +10749,7 @@
       <c r="G58" s="124"/>
       <c r="H58" s="124"/>
     </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="21" t="s">
         <v>241</v>
       </c>
@@ -10763,7 +10761,7 @@
       <c r="G59" s="124"/>
       <c r="H59" s="124"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="34" t="s">
         <v>220</v>
       </c>
@@ -10789,12 +10787,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B61" s="131" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C61" s="124"/>
       <c r="D61" s="124"/>
@@ -10803,12 +10801,12 @@
       <c r="G61" s="124"/>
       <c r="H61" s="124"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B62" s="131" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C62" s="124"/>
       <c r="D62" s="124"/>
@@ -10817,7 +10815,7 @@
       <c r="G62" s="124"/>
       <c r="H62" s="124"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="35" t="s">
         <v>221</v>
       </c>
@@ -10826,14 +10824,14 @@
         <v>10</v>
       </c>
       <c r="D63" s="131" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E63" s="130"/>
       <c r="F63" s="131"/>
       <c r="G63" s="131"/>
       <c r="H63" s="124"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="35" t="s">
         <v>222</v>
       </c>
@@ -10845,12 +10843,12 @@
       <c r="G64" s="131"/>
       <c r="H64" s="124"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="35" t="s">
         <v>243</v>
       </c>
       <c r="B65" s="131" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C65" s="124"/>
       <c r="D65" s="124"/>
@@ -10859,7 +10857,7 @@
       <c r="G65" s="124"/>
       <c r="H65" s="124"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="35" t="s">
         <v>232</v>
       </c>
@@ -10871,7 +10869,7 @@
       <c r="G66" s="131"/>
       <c r="H66" s="124"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="35"/>
       <c r="B67" s="124"/>
       <c r="C67" s="124"/>
@@ -10881,7 +10879,7 @@
       <c r="G67" s="124"/>
       <c r="H67" s="124"/>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="33" t="s">
         <v>242</v>
       </c>
@@ -10907,7 +10905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="31" t="s">
         <v>209</v>
       </c>
@@ -10919,7 +10917,7 @@
       <c r="G69" s="124"/>
       <c r="H69" s="124"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="35" t="s">
         <v>217</v>
       </c>
@@ -10931,7 +10929,7 @@
       <c r="G70" s="124"/>
       <c r="H70" s="124"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="35" t="s">
         <v>232</v>
       </c>
@@ -10943,7 +10941,7 @@
       <c r="G71" s="131"/>
       <c r="H71" s="124"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="35"/>
       <c r="B72" s="124"/>
       <c r="C72" s="124"/>
@@ -10953,7 +10951,7 @@
       <c r="G72" s="124"/>
       <c r="H72" s="124"/>
     </row>
-    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="33" t="s">
         <v>436</v>
       </c>
@@ -10979,12 +10977,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="31" t="s">
         <v>209</v>
       </c>
       <c r="B74" s="131" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C74" s="124"/>
       <c r="D74" s="124"/>
@@ -10993,12 +10991,12 @@
       <c r="G74" s="124"/>
       <c r="H74" s="124"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="35" t="s">
         <v>217</v>
       </c>
       <c r="B75" s="131" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C75" s="124"/>
       <c r="D75" s="124"/>
@@ -11007,7 +11005,7 @@
       <c r="G75" s="124"/>
       <c r="H75" s="124"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="35" t="s">
         <v>232</v>
       </c>
@@ -11019,7 +11017,7 @@
       <c r="G76" s="131"/>
       <c r="H76" s="124"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="35"/>
       <c r="B77" s="124"/>
       <c r="C77" s="124"/>
@@ -11029,7 +11027,7 @@
       <c r="G77" s="124"/>
       <c r="H77" s="124"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="21" t="s">
         <v>244</v>
       </c>
@@ -11041,7 +11039,7 @@
       <c r="G78" s="124"/>
       <c r="H78" s="124"/>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="33" t="s">
         <v>224</v>
       </c>
@@ -11067,7 +11065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="31" t="s">
         <v>209</v>
       </c>
@@ -11079,7 +11077,7 @@
       <c r="G80" s="124"/>
       <c r="H80" s="124"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="35" t="s">
         <v>217</v>
       </c>
@@ -11091,7 +11089,7 @@
       <c r="G81" s="124"/>
       <c r="H81" s="124"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="35" t="s">
         <v>232</v>
       </c>
@@ -11103,7 +11101,7 @@
       <c r="G82" s="131"/>
       <c r="H82" s="124"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="35"/>
       <c r="B83" s="124"/>
       <c r="C83" s="124"/>
@@ -11113,7 +11111,7 @@
       <c r="G83" s="124"/>
       <c r="H83" s="124"/>
     </row>
-    <row r="84" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="21" t="s">
         <v>245</v>
       </c>
@@ -11125,7 +11123,7 @@
       <c r="G84" s="124"/>
       <c r="H84" s="124"/>
     </row>
-    <row r="85" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="33" t="s">
         <v>226</v>
       </c>
@@ -11151,7 +11149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="31" t="s">
         <v>209</v>
       </c>
@@ -11163,7 +11161,7 @@
       <c r="G86" s="124"/>
       <c r="H86" s="124"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="35" t="s">
         <v>217</v>
       </c>
@@ -11175,7 +11173,7 @@
       <c r="G87" s="124"/>
       <c r="H87" s="124"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="35" t="s">
         <v>232</v>
       </c>
@@ -11187,7 +11185,7 @@
       <c r="G88" s="131"/>
       <c r="H88" s="124"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="20"/>
       <c r="B89" s="124"/>
       <c r="C89" s="124"/>
@@ -11197,7 +11195,7 @@
       <c r="G89" s="124"/>
       <c r="H89" s="124"/>
     </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="33" t="s">
         <v>229</v>
       </c>
@@ -11223,7 +11221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="20" t="s">
         <v>230</v>
       </c>
@@ -11235,7 +11233,7 @@
       <c r="G91" s="124"/>
       <c r="H91" s="124"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="35" t="s">
         <v>217</v>
       </c>
@@ -11247,7 +11245,7 @@
       <c r="G92" s="124"/>
       <c r="H92" s="124"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="35" t="s">
         <v>547</v>
       </c>
@@ -11259,7 +11257,7 @@
       <c r="G93" s="124"/>
       <c r="H93" s="124"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="35" t="s">
         <v>232</v>
       </c>
@@ -11271,7 +11269,7 @@
       <c r="G94" s="131"/>
       <c r="H94" s="124"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="20"/>
       <c r="B95" s="124"/>
       <c r="C95" s="124"/>
@@ -11281,7 +11279,7 @@
       <c r="G95" s="124"/>
       <c r="H95" s="124"/>
     </row>
-    <row r="96" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="33" t="s">
         <v>231</v>
       </c>
@@ -11307,7 +11305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="31" t="s">
         <v>209</v>
       </c>
@@ -11319,7 +11317,7 @@
       <c r="G97" s="124"/>
       <c r="H97" s="124"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="35" t="s">
         <v>217</v>
       </c>
@@ -11331,7 +11329,7 @@
       <c r="G98" s="124"/>
       <c r="H98" s="124"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="35" t="s">
         <v>232</v>
       </c>
@@ -11385,22 +11383,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -11409,19 +11407,19 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="48" customHeight="1">
       <c r="A2" s="175" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="22" t="s">
         <v>135</v>
       </c>
@@ -11447,7 +11445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>454</v>
       </c>
@@ -11458,7 +11456,7 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="43" t="s">
         <v>455</v>
       </c>
@@ -11469,7 +11467,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="43" t="s">
         <v>456</v>
       </c>
@@ -11480,7 +11478,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="124" customFormat="1">
       <c r="A9" s="158" t="s">
         <v>596</v>
       </c>
@@ -11491,7 +11489,7 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="122" t="s">
         <v>555</v>
       </c>
@@ -11502,7 +11500,7 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="124" customFormat="1">
       <c r="A11" s="158" t="s">
         <v>597</v>
       </c>
@@ -11513,7 +11511,7 @@
       <c r="F11" s="131"/>
       <c r="G11" s="131"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="43" t="s">
         <v>457</v>
       </c>
@@ -11524,7 +11522,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="43" t="s">
         <v>458</v>
       </c>
@@ -11535,7 +11533,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="43" t="s">
         <v>459</v>
       </c>
@@ -11546,7 +11544,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="43" t="s">
         <v>460</v>
       </c>
@@ -11557,7 +11555,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="43" t="s">
         <v>461</v>
       </c>
@@ -11568,13 +11566,13 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="43" t="s">
         <v>462</v>
       </c>
       <c r="C17" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="43" t="s">
         <v>463</v>
       </c>
@@ -11585,7 +11583,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="43" t="s">
         <v>464</v>
       </c>
@@ -11596,19 +11594,19 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="124" customFormat="1">
       <c r="A20" s="158" t="s">
         <v>600</v>
       </c>
       <c r="B20" s="131"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B21" s="24"/>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="22" t="s">
         <v>502</v>
       </c>
@@ -11634,7 +11632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>466</v>
       </c>
@@ -11645,7 +11643,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>467</v>
       </c>
@@ -11656,7 +11654,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -11667,7 +11665,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>556</v>
       </c>
@@ -11678,7 +11676,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>463</v>
       </c>
@@ -11689,7 +11687,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>464</v>
       </c>
@@ -11700,18 +11698,18 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B30" s="24"/>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="43" t="s">
         <v>469</v>
       </c>
@@ -11722,7 +11720,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="43" t="s">
         <v>470</v>
       </c>
@@ -11733,7 +11731,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="43" t="s">
         <v>471</v>
       </c>
@@ -11744,7 +11742,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="122" t="s">
         <v>557</v>
       </c>
@@ -11755,7 +11753,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="43" t="s">
         <v>463</v>
       </c>
@@ -11766,7 +11764,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="43" t="s">
         <v>464</v>
       </c>
@@ -11777,13 +11775,13 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B39" s="24"/>
     </row>
-    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="22" t="s">
         <v>133</v>
       </c>
@@ -11809,7 +11807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="43" t="s">
         <v>472</v>
       </c>
@@ -11820,7 +11818,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="43" t="s">
         <v>473</v>
       </c>
@@ -11831,7 +11829,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="43" t="s">
         <v>474</v>
       </c>
@@ -11842,7 +11840,7 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="43" t="s">
         <v>463</v>
       </c>
@@ -11853,7 +11851,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="43" t="s">
         <v>464</v>
       </c>
@@ -11864,21 +11862,21 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B47" s="24"/>
     </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="28" t="s">
         <v>139</v>
       </c>
@@ -11904,13 +11902,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>140</v>
       </c>
       <c r="B51" s="24"/>
     </row>
-    <row r="52" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="124" customFormat="1">
       <c r="A52" s="124" t="s">
         <v>141</v>
       </c>
@@ -11921,7 +11919,7 @@
       <c r="F52" s="131"/>
       <c r="G52" s="131"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="159" t="s">
         <v>599</v>
       </c>
@@ -11932,7 +11930,7 @@
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="28" t="s">
         <v>142</v>
       </c>
@@ -11958,19 +11956,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>144</v>
       </c>
       <c r="B56" s="24"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="24"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -11981,7 +11979,7 @@
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="124" customFormat="1">
       <c r="A59" s="159" t="s">
         <v>599</v>
       </c>
@@ -11992,19 +11990,19 @@
       <c r="F59" s="131"/>
       <c r="G59" s="131"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>145</v>
       </c>
       <c r="B60" s="24"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B61" s="24"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="28" t="s">
         <v>146</v>
       </c>
@@ -12030,19 +12028,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="24"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>140</v>
       </c>
       <c r="B65" s="24"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -12053,7 +12051,7 @@
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
     </row>
-    <row r="67" spans="1:8" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="124" customFormat="1">
       <c r="A67" s="159" t="s">
         <v>599</v>
       </c>
@@ -12064,19 +12062,19 @@
       <c r="F67" s="131"/>
       <c r="G67" s="131"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>147</v>
       </c>
       <c r="B68" s="24"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="60" t="s">
         <v>465</v>
       </c>
       <c r="B69" s="24"/>
     </row>
-    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="22" t="s">
         <v>134</v>
       </c>
@@ -12102,13 +12100,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>148</v>
       </c>
       <c r="B72" s="23"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -12119,7 +12117,7 @@
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -12130,7 +12128,7 @@
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -12141,7 +12139,7 @@
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>558</v>
       </c>
@@ -12152,7 +12150,7 @@
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="129" t="s">
         <v>572</v>
       </c>
@@ -12178,7 +12176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="124" t="s">
         <v>575</v>
       </c>
@@ -12189,7 +12187,7 @@
       <c r="F79" s="124"/>
       <c r="G79" s="124"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="135" t="s">
         <v>573</v>
       </c>
@@ -12200,7 +12198,7 @@
       <c r="F80" s="124"/>
       <c r="G80" s="124"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="135" t="s">
         <v>574</v>
       </c>
@@ -12249,20 +12247,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -12271,55 +12269,55 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="48.75" customHeight="1">
       <c r="A2" s="175" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="60" t="s">
         <v>510</v>
       </c>
@@ -12336,7 +12334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -12344,7 +12342,7 @@
       <c r="C14" s="24"/>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>545</v>
       </c>
@@ -12352,7 +12350,7 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>505</v>
       </c>
@@ -12360,7 +12358,7 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="B18" s="12" t="s">
         <v>110</v>
       </c>
@@ -12371,33 +12369,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="69" t="s">
         <v>511</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="69" t="s">
         <v>511</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>569</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="28" t="s">
         <v>172</v>
       </c>
@@ -12423,7 +12421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -12434,7 +12432,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -12444,7 +12442,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -12455,7 +12453,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="28" t="s">
         <v>135</v>
       </c>
@@ -12481,13 +12479,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>179</v>
       </c>
       <c r="B32" s="24"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -12498,7 +12496,7 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -12509,7 +12507,7 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -12520,7 +12518,7 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -12530,7 +12528,7 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -12541,7 +12539,7 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="28" t="s">
         <v>136</v>
       </c>
@@ -12567,7 +12565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -12578,7 +12576,7 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -12588,7 +12586,7 @@
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -12660,20 +12658,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -12682,14 +12680,14 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="51" customHeight="1">
       <c r="A2" s="175" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>111</v>
       </c>
@@ -12709,7 +12707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -12718,7 +12716,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -12727,7 +12725,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -12736,7 +12734,7 @@
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>503</v>
       </c>
@@ -12745,7 +12743,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -12754,7 +12752,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -12763,7 +12761,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>513</v>
       </c>
@@ -12772,7 +12770,7 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -12781,7 +12779,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>504</v>
       </c>
@@ -12790,7 +12788,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="121" t="s">
         <v>537</v>
       </c>
@@ -12810,7 +12808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -12820,7 +12818,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="124" customFormat="1">
       <c r="A17" s="159" t="s">
         <v>601</v>
       </c>
@@ -12830,7 +12828,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="124" customFormat="1">
       <c r="A18" s="158" t="s">
         <v>605</v>
       </c>
@@ -12842,7 +12840,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="124" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="124" customFormat="1">
       <c r="A19" s="158" t="s">
         <v>606</v>
       </c>
@@ -12854,7 +12852,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>549</v>
       </c>
@@ -12864,7 +12862,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>609</v>
       </c>
@@ -12874,7 +12872,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>550</v>
       </c>
@@ -12884,7 +12882,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -12892,7 +12890,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="B24" s="27" t="s">
         <v>611</v>
       </c>
@@ -12909,7 +12907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -12924,7 +12922,7 @@
       </c>
       <c r="E25" s="131"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="B26" s="132" t="s">
         <v>210</v>
       </c>
@@ -12935,14 +12933,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>535</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="131"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="B28" s="127" t="s">
         <v>116</v>
       </c>
@@ -12954,7 +12952,7 @@
       </c>
       <c r="E28" s="124"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>610</v>
       </c>
@@ -12962,7 +12960,7 @@
       <c r="C29" s="131"/>
       <c r="D29" s="124"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="124" t="s">
         <v>612</v>
       </c>
@@ -13007,21 +13005,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="10" t="s">
         <v>109</v>
       </c>
@@ -13030,33 +13028,33 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="61.2" customHeight="1">
       <c r="A2" s="175" t="s">
         <v>520</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="22" t="s">
         <v>578</v>
       </c>
       <c r="B6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" s="12" t="s">
         <v>110</v>
       </c>
@@ -13079,13 +13077,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="22" t="s">
         <v>163</v>
       </c>
       <c r="B9" s="24"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="22" t="s">
         <v>186</v>
       </c>
@@ -13111,14 +13109,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>476</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -13129,7 +13127,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -13140,7 +13138,7 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>189</v>
       </c>
@@ -13151,7 +13149,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -13162,7 +13160,7 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="22" t="s">
         <v>191</v>
       </c>
@@ -13173,7 +13171,7 @@
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="22" t="s">
         <v>192</v>
       </c>
@@ -13184,7 +13182,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="22" t="s">
         <v>193</v>
       </c>
@@ -13195,7 +13193,7 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="22" t="s">
         <v>576</v>
       </c>
@@ -13206,7 +13204,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="22" t="s">
         <v>577</v>
       </c>
@@ -13219,7 +13217,7 @@
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="22" t="s">
         <v>194</v>
       </c>
@@ -13230,10 +13228,10 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="22" t="s">
         <v>195</v>
       </c>
@@ -13244,10 +13242,10 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="22" t="s">
         <v>196</v>
       </c>
@@ -13258,10 +13256,10 @@
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="22" t="s">
         <v>197</v>
       </c>
@@ -13272,10 +13270,10 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.6">
       <c r="A36" s="22" t="s">
         <v>198</v>
       </c>
@@ -13286,10 +13284,10 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="22" t="s">
         <v>199</v>
       </c>
@@ -13300,10 +13298,10 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="22" t="s">
         <v>200</v>
       </c>
